--- a/data/income_statement/3digits/total/932_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/932_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>932-Amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>932-Amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>375938.77152</v>
@@ -956,19 +862,19 @@
         <v>320236.99545</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>416708.05587</v>
+        <v>416797.0910599999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>553107.58897</v>
+        <v>553411.2718900001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>743892.2473500001</v>
+        <v>744593.6751199999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>888076.6178299999</v>
+        <v>895659.54724</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>999402.81768</v>
+        <v>1004920.02266</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1051259.2348</v>
@@ -977,16 +883,21 @@
         <v>1346544.5199</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1795211.00958</v>
+        <v>1813570.33751</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2213836.42351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2226496.73774</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1830306.464</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>345986.38741</v>
@@ -995,19 +906,19 @@
         <v>292507.05262</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>378199.52655</v>
+        <v>378288.56174</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>503073.88263</v>
+        <v>503377.5655499999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>666386.74389</v>
+        <v>667088.1716600001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>841988.33575</v>
+        <v>849568.3708500001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>947699.4647799999</v>
+        <v>952717.7919500001</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>974235.76767</v>
@@ -1016,16 +927,21 @@
         <v>1244755.48178</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1655904.13676</v>
+        <v>1674204.31291</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2064113.56539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2074360.52383</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1713738.093</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>20002.31889</v>
@@ -1046,7 +962,7 @@
         <v>21877.82724</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21731.76369</v>
+        <v>21733.88461</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>39476.80383</v>
@@ -1058,16 +974,21 @@
         <v>76416.84565999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>75078.84209000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>77001.67464</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>55922.791</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9950.06522</v>
+        <v>9950.065219999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>11556.04514</v>
@@ -1082,10 +1003,10 @@
         <v>18785.45253</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>24210.45484</v>
+        <v>24213.34915</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>29971.58921</v>
+        <v>30468.3461</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>37546.6633</v>
@@ -1094,22 +1015,27 @@
         <v>44872.01281</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>62890.02716</v>
+        <v>62949.17894</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>74644.01603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>75134.53926999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>60645.58</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>813.01984</v>
+        <v>813.0198399999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>821.45102</v>
+        <v>821.4510199999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1271.38243</v>
@@ -1124,7 +1050,7 @@
         <v>2892.56012</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5065.48227</v>
+        <v>5092.487629999999</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>4966.78291</v>
@@ -1136,19 +1062,24 @@
         <v>40288.64994</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>57983.32646999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>58063.90612</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>103160.166</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>808.0805799999999</v>
+        <v>808.0805800000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>818.90389</v>
+        <v>818.9038899999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>1146.12921</v>
@@ -1157,13 +1088,13 @@
         <v>1703.90484</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>775.8220900000001</v>
+        <v>775.82209</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1888.05101</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4792.785910000001</v>
+        <v>4819.79127</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>4650.728599999999</v>
@@ -1175,16 +1106,21 @@
         <v>38925.16149</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>57002.20953999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56969.53712</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>79003.197</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4.93926</v>
+        <v>4.939259999999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>0.26781</v>
@@ -1208,19 +1144,24 @@
         <v>313.01114</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>555.05255</v>
+        <v>555.0525499999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>943.51744</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>965.7447999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1078.99687</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>24108.27</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>15.37213</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>48.699</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>375125.75168</v>
@@ -1268,19 +1214,19 @@
         <v>319415.54443</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>415436.67344</v>
+        <v>415525.70863</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>551226.93375</v>
+        <v>551530.6166700001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>742109.03793</v>
+        <v>742810.4657000001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>885184.0577100001</v>
+        <v>892766.9871199999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>994337.3354099999</v>
+        <v>999827.53503</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1046292.45189</v>
@@ -1289,16 +1235,21 @@
         <v>1340018.25411</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1754922.35964</v>
+        <v>1773281.68757</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2155853.09704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2168432.83162</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1727146.298</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>273711.07988</v>
@@ -1307,19 +1258,19 @@
         <v>216707.10665</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>284750.22051</v>
+        <v>284831.16159</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>387928.17591</v>
+        <v>388130.3888199999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>516308.7774599999</v>
+        <v>516891.5345700001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>594080.0473499999</v>
+        <v>601850.71786</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>667725.4826399999</v>
+        <v>672330.59186</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>738136.9262199999</v>
@@ -1328,16 +1279,21 @@
         <v>920792.86696</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1225238.35522</v>
+        <v>1242785.25449</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1518479.00592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1520701.53083</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1288779.973</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12013.06202</v>
@@ -1355,10 +1311,10 @@
         <v>26104.03914</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>48393.45701</v>
+        <v>48393.45701000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>40664.53559000001</v>
+        <v>40978.99582</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>57460.65358999999</v>
@@ -1367,16 +1323,21 @@
         <v>43121.89401</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>63890.78518</v>
+        <v>63892.79818</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>93563.38610999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>93794.98679999998</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>111239.739</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>152978.00474</v>
@@ -1385,19 +1346,19 @@
         <v>44568.13975</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>53229.92695</v>
+        <v>53310.86803</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>53859.02387999999</v>
+        <v>53859.02388</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>110273.78942</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>128174.94505</v>
+        <v>128281.71425</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>135548.73719</v>
+        <v>135970.38664</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>120795.10241</v>
@@ -1406,16 +1367,21 @@
         <v>235954.10194</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>248189.59599</v>
+        <v>248229.09619</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>261198.88775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>263993.43024</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>302681.426</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>108162.92777</v>
@@ -1427,34 +1393,39 @@
         <v>217635.64253</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>312461.63291</v>
+        <v>312663.84582</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>376881.55326</v>
+        <v>377464.31037</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>414670.48535</v>
+        <v>422334.38666</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>485679.0643099999</v>
+        <v>489540.56385</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>553916.72348</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>636786.6476400001</v>
+        <v>636786.64764</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>893604.68297</v>
+        <v>911110.06904</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1157887.4886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1157051.34367</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>865413.177</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>557.0853499999999</v>
@@ -1475,25 +1446,30 @@
         <v>2841.15994</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5833.14555</v>
+        <v>5840.64555</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>5964.44674</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4930.22337</v>
+        <v>4930.223370000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>19553.29108</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5829.243460000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5861.77012</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9445.630999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>101414.6718</v>
@@ -1502,19 +1478,19 @@
         <v>102708.43778</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>130686.45293</v>
+        <v>130694.54704</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>163298.75784</v>
+        <v>163400.22785</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>225800.26047</v>
+        <v>225918.93113</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>291104.01036</v>
+        <v>290916.26926</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>326611.85277</v>
+        <v>327496.94317</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>308155.5256699999</v>
@@ -1523,16 +1499,21 @@
         <v>419225.38715</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>529684.00442</v>
+        <v>530496.43308</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>637374.09112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>647731.3007900001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>438366.325</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>89388.43656</v>
@@ -1541,37 +1522,42 @@
         <v>114969.08207</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>133273.29805</v>
+        <v>133273.4035</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>164085.04717</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>211698.02777</v>
+        <v>211698.98738</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>271670.4054099999</v>
+        <v>272138.21631</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>317252.21212</v>
+        <v>318226.9466</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>370335.53059</v>
+        <v>370329.03986</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>427577.7672499999</v>
+        <v>427577.76725</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>530185.3958099999</v>
+        <v>531190.73077</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>671706.4269600001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>682396.28209</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>619685.264</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12.94095</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0.14037</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>251.647</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>5648.384599999999</v>
@@ -1625,70 +1616,80 @@
         <v>11842.85514</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21260.96475</v>
+        <v>21261.2795</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>24468.68463</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>25794.50504</v>
+        <v>25860.86122</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>47750.46368000001</v>
+        <v>47750.46367999999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>45362.55935</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>55396.23097</v>
+        <v>55403.09096999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>66460.76977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>67146.82958000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>42100.507</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>83727.11100999999</v>
+        <v>83727.11101000001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>106967.69857</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>124167.93654</v>
+        <v>124168.04199</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>152208.42589</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>189682.42835</v>
+        <v>189683.07321</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>247044.04877</v>
+        <v>247511.85967</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>291457.70608</v>
+        <v>292366.08438</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>322582.03895</v>
+        <v>322575.5482200001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>382207.00554</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>474781.51363</v>
+        <v>475779.98859</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>605245.51682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>615249.3121399999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>577333.11</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>12026.23524</v>
@@ -1697,40 +1698,45 @@
         <v>-12260.64429</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2586.84512</v>
+        <v>-2578.85646</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-786.2893299999994</v>
+        <v>-684.8193200000007</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>14102.2327</v>
+        <v>14219.94375</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>19433.60495</v>
+        <v>18778.05295</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9359.640650000001</v>
+        <v>9269.996569999996</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-62180.00491999999</v>
+        <v>-62173.51419</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-8352.380099999998</v>
+        <v>-8352.380100000002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-501.3913900000006</v>
+        <v>-694.2976899999976</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-34332.33584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-34664.98129999998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-181318.939</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>71364.76248</v>
+        <v>71364.76247999999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>55754.40698000001</v>
@@ -1739,16 +1745,16 @@
         <v>39094.78169</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>57676.26632000001</v>
+        <v>57676.75596</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>74726.76367999999</v>
+        <v>74729.14029000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>72733.46139999999</v>
+        <v>72740.39245</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>68107.28735000001</v>
+        <v>68700.13114999999</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>135694.57728</v>
@@ -1757,16 +1763,21 @@
         <v>183784.6244</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>545727.6636099999</v>
+        <v>545729.80411</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>342561.6204199999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>341293.38888</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>442456.914</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2688.25018</v>
@@ -1784,16 +1795,16 @@
         <v>8128.35154</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5081.98402</v>
+        <v>5081.984020000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6211.716909999999</v>
+        <v>6211.71691</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>7311.54325</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6067.29514</v>
+        <v>6067.295139999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>3634.19409</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8746.380710000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13732.782</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4860.888069999999</v>
+        <v>4860.88807</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5881.645259999998</v>
+        <v>5881.645260000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>6499.35061</v>
@@ -1865,7 +1886,7 @@
         <v>14661.96503</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13636.44748</v>
+        <v>13779.8735</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>17204.67066</v>
@@ -1877,16 +1898,21 @@
         <v>35718.72522</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>47220.22119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>47199.57646</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>40851.045</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>6.313299999999999</v>
+        <v>6.3133</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>36.57285</v>
@@ -1910,19 +1936,24 @@
         <v>38.04002000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>95.14001999999999</v>
+        <v>95.14002000000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>66.78389</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>405.89945</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>405.8994499999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>610.671</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>232.10877</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>6685.78691</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>9825.891</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>102.05213</v>
@@ -1973,7 +2009,7 @@
         <v>968.6718400000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>406.6255400000001</v>
+        <v>406.62554</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>218.41915</v>
@@ -1988,19 +2024,24 @@
         <v>209.94287</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>328.6068200000001</v>
+        <v>328.60682</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>3803.9653</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>989.9336900000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>989.93369</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>35251.102</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>48949.20034</v>
@@ -2015,10 +2056,10 @@
         <v>28524.79382</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>46344.01773000001</v>
+        <v>46344.01773</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>38825.91128</v>
+        <v>38831.21708</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>36619.82713</v>
@@ -2030,16 +2071,21 @@
         <v>137300.47309</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>468251.04545</v>
+        <v>468252.5149899999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>244784.14663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>244900.92726</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>323071.535</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>24.11085</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1161.541</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>233.99522</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>14501.83884</v>
@@ -2129,16 +2185,16 @@
         <v>11701.32138</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16508.10674</v>
+        <v>16508.59638</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8277.740609999999</v>
+        <v>8280.117219999998</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6936.394560000001</v>
+        <v>6938.019810000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8897.218919999999</v>
+        <v>9346.636699999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>39509.69063</v>
@@ -2147,16 +2203,21 @@
         <v>15606.02559</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>29945.92495</v>
+        <v>29946.59591</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>33495.25662</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>32130.88918</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17952.347</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>16166.22003</v>
@@ -2171,13 +2232,13 @@
         <v>21712.56413</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54816.85535</v>
+        <v>54816.85534999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>50643.00951</v>
+        <v>50739.24655</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>70343.90058</v>
+        <v>70345.46191</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>56940.58281</v>
@@ -2186,16 +2247,21 @@
         <v>145992.31302</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>412173.65354</v>
+        <v>412173.68262</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>166482.86339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>166526.96398</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>311318.455</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>53.98414999999999</v>
@@ -2225,22 +2291,27 @@
         <v>1631.41936</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4049.672059999999</v>
+        <v>4049.70106</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>8828.870500000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>6259.176</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1409.13267</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>927.4372799999999</v>
+        <v>927.43728</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>11409.34907</v>
@@ -2252,10 +2323,10 @@
         <v>3028.22779</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6608.633549999999</v>
+        <v>6608.63355</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6160.80282</v>
+        <v>6160.802819999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>7431.16959</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>11379.34338</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>16655.321</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.26818</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>6146.04141</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8114.138979999999</v>
+        <v>8114.138980000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>10089.46432</v>
@@ -2330,7 +2411,7 @@
         <v>49676.17825</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>41713.09348</v>
+        <v>41716.85083</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>34408.56043</v>
@@ -2345,13 +2426,18 @@
         <v>391248.12355</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>144113.07479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>144156.99847</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>286293.911</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4.67655</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.00063</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8550.116440000002</v>
+        <v>8550.11644</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>8004.84419</v>
@@ -2447,10 +2543,10 @@
         <v>1825.76662</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1802.00829</v>
+        <v>1894.48798</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>29509.38643</v>
+        <v>29510.94776</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>1553.16806</v>
@@ -2459,16 +2555,21 @@
         <v>3625.21554</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3086.62465</v>
+        <v>3086.62473</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2161.57472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2161.75163</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2110.047</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>52547.60114999999</v>
@@ -2477,19 +2578,19 @@
         <v>49737.77384</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>75345.89986999999</v>
+        <v>75345.89987000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>20686.56813</v>
+        <v>20820.41692</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>91197.91389000001</v>
+        <v>91318.64589999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>60419.49529000001</v>
+        <v>60547.33287000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>130968.65007</v>
+        <v>131151.63685</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>144116.8895</v>
@@ -2498,19 +2599,24 @@
         <v>111557.92922</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>331757.50472</v>
+        <v>331759.71868</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>276186.80056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>276249.09991</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>304962.4</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5750.35956</v>
+        <v>5750.359560000001</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>5988.99727</v>
@@ -2519,58 +2625,63 @@
         <v>14392.66057</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>14651.87993</v>
+        <v>14785.72872</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>27905.91993</v>
+        <v>28026.65194</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24068.37125</v>
+        <v>24196.20883</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33666.754</v>
+        <v>33849.74078</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>47672.6595</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>70371.14993000001</v>
+        <v>70371.14992999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>102117.9521</v>
+        <v>102120.16606</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>92987.66926000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>93049.96861</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>93016.802</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>46797.24159</v>
+        <v>46797.24159000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>43748.77657000001</v>
+        <v>43748.77656999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>60953.2393</v>
+        <v>60953.23929999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>6034.6882</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>63291.99396</v>
+        <v>63291.99395999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>36351.12404</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>97301.89607</v>
+        <v>97301.89606999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>96444.23</v>
+        <v>96444.22999999998</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>41186.77929</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>183199.1313</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>211945.598</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>14677.17654</v>
@@ -2594,58 +2710,63 @@
         <v>-23562.006</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-68613.74965000001</v>
+        <v>-68605.76099000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14490.84473</v>
+        <v>14458.95559</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-57185.77286</v>
+        <v>-57186.41721000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-18895.43845</v>
+        <v>-19768.13402</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-123845.62265</v>
+        <v>-123526.97104</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-127542.89995</v>
+        <v>-127536.40922</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-82117.99794</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-198704.88604</v>
+        <v>-198897.89488</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-134440.37937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-136147.65631</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-355142.88</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3534.00742</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8112.75184</v>
+        <v>8112.751840000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8723.90962</v>
+        <v>8723.918470000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>9317.01145</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9129.779629999999</v>
+        <v>9131.975</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10098.89335</v>
+        <v>10123.53202</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17668.58033</v>
+        <v>18039.90212</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>192901.29224</v>
@@ -2654,22 +2775,27 @@
         <v>25592.821</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>26645.02581</v>
+        <v>26650.08041</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>90140.52692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>91769.10418000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>32255.883</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>16.91699</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>35.08985</v>
+        <v>35.08985000000001</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>2.01999</v>
@@ -2698,32 +2824,37 @@
       <c r="M49" s="48" t="n">
         <v>38.45844</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>383.153</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3517.09043</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8077.661990000001</v>
+        <v>8077.66199</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8721.889630000001</v>
+        <v>8721.89848</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9256.332579999998</v>
+        <v>9256.33258</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8950.63637</v>
+        <v>8952.83174</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10066.51982</v>
+        <v>10091.15849</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17114.23636</v>
+        <v>17485.55815</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>192725.20664</v>
@@ -2732,37 +2863,42 @@
         <v>25534.46159</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>26550.61052</v>
+        <v>26555.66512</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>90102.06848</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>91730.64573999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>31872.73</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2634.25305</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5361.20011</v>
+        <v>5361.200110000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29749.88002</v>
+        <v>29771.988</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>8095.102900000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7346.31775</v>
+        <v>7371.492560000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26195.78586</v>
+        <v>26203.20925</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19011.49102</v>
+        <v>19107.93277</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>39970.78547</v>
@@ -2771,16 +2907,21 @@
         <v>43182.8433</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>24378.50476</v>
+        <v>24378.50637</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>30017.0863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>30220.55512</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>21638.416</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>83.81974000000001</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>453.98561</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>671.98</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>516.23329</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>2061.99377</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>981.127</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2034.20002</v>
@@ -2867,37 +3018,42 @@
         <v>4461.155009999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29020.80865</v>
+        <v>29042.91663</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6793.319299999999</v>
+        <v>6793.319300000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7009.060640000001</v>
+        <v>7034.23545</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25838.69978</v>
+        <v>25846.12317</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17926.31178</v>
+        <v>18022.75353</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>39067.97531</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>42512.3212</v>
+        <v>42512.32120000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>22451.79711</v>
+        <v>22451.79872</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>27501.10692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>27704.57574</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>19985.309</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>15576.93091</v>
@@ -2906,58 +3062,63 @@
         <v>-20810.45427</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-89639.72005</v>
+        <v>-89653.83051999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>15712.75328</v>
+        <v>15680.86414</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-55402.31098</v>
+        <v>-55425.93477</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-34992.33096</v>
+        <v>-35847.81125</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-125188.53334</v>
+        <v>-124595.00169</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>25387.60682</v>
+        <v>25394.09755</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-99708.02023999998</v>
+        <v>-99708.02024</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-196438.36499</v>
+        <v>-196626.32084</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-74316.93875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-74599.10725</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-344525.413</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7747.18575</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7862.194670000001</v>
+        <v>7862.19467</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6901.49691</v>
+        <v>6901.95099</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>7585.18391</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>9691.47561</v>
+        <v>9691.475610000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15922.58079</v>
+        <v>15933.41316</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12168.63427</v>
+        <v>12275.46864</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>12505.03431</v>
@@ -2966,52 +3127,60 @@
         <v>15573.90701</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>36279.93886</v>
+        <v>36336.64539</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>39642.98448000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>39809.63914</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41546.896</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7829.745160000001</v>
+        <v>7829.745160000002</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-28672.64894</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-96541.21696000001</v>
+        <v>-96555.78151</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8127.569370000002</v>
+        <v>8095.680229999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-65093.78658999999</v>
+        <v>-65117.41038</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-50914.91175000001</v>
+        <v>-51781.22441</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-137357.16761</v>
+        <v>-136870.47033</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>12882.57251000001</v>
+        <v>12889.06324</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-115281.92725</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-232718.30385</v>
+        <v>-232962.96623</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-113959.92323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-114408.74639</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-386072.309</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>910</v>
@@ -3041,31 +3213,34 @@
         <v>1011</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1374</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1411</v>
+        <v>1453</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1599</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>